--- a/biology/Histoire de la zoologie et de la botanique/Franz_von_Hohenwart/Franz_von_Hohenwart.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Franz_von_Hohenwart/Franz_von_Hohenwart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le comte Franz Josef Hannibal von Hochenwart, aussi orthographié Franc Jožef Hanibal Hohenwart ou plus simplement Franz von Hohenwart est un naturaliste carnolien passionné d'entomologie né à Laibach le 24 mai 1771 et mort le 2 août 1844.
 </t>
@@ -511,13 +523,50 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait ses études de sciences naturelles et minières à Vienne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses études de sciences naturelles et minières à Vienne.
 Il est connu pour avoir le premier réalisé l'ascension du Mangart, du Dobratsch et du Hochstuhl durant sa jeunesse, en 1794.
-C'est sous son impulsion qu'est créé le Musée national de Slovénie à Ljubljana, dès 1821 et Hohenwart le dirige de 1830 à 1836. Il lui offre également ses collections de coquilles de gastéropodes[2].
-Taxons dédiés
-Plusieurs taxons portent son nom, comme les deux insectes cavernicoles Leptodirus hochenwartii Schmidt, 1832 ou Hohenwartiana hohenwarti (Rossmaessler, 1839).
+C'est sous son impulsion qu'est créé le Musée national de Slovénie à Ljubljana, dès 1821 et Hohenwart le dirige de 1830 à 1836. Il lui offre également ses collections de coquilles de gastéropodes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Franz_von_Hohenwart</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franz_von_Hohenwart</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Taxons dédiés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs taxons portent son nom, comme les deux insectes cavernicoles Leptodirus hochenwartii Schmidt, 1832 ou Hohenwartiana hohenwarti (Rossmaessler, 1839).
 </t>
         </is>
       </c>
